--- a/biology/Zoologie/Philanthus_annulatus/Philanthus_annulatus.xlsx
+++ b/biology/Zoologie/Philanthus_annulatus/Philanthus_annulatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philanthus annulatus est une espèce fossile d'insectes hyménoptères guêpes solitaires de la famille des Crabronidae et du genre Philanthus.
 </t>
@@ -511,15 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Philanthus annulatus est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2] et déclarée alors comme appartenant à la famille des Spegidae. 
-Fossiles
-L'holotype I de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) fait partie de la collection de l'institut géologique de Marseille, et vient de Camoins-les-Bains près de Marseille, dans les calcaires en plaquettes, probablement du Sannoisien[1].
-Étymologie
-L'épithète spécifique annulatus signifie en latin « annulé ».
-Ancienne espèce synonyme
-The Taxonomicon en 2023, signale une espèce Philanthus annulatus (Spinola, 1851) renommée en Trachypus annulatus Spinola, 1851.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Philanthus annulatus est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse, et déclarée alors comme appartenant à la famille des Spegidae. 
 </t>
         </is>
       </c>
@@ -545,18 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Présentation</t>
+          <t>Systématique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[3],[note 1] : 
-« Corps brun noir, ailes claires. Tête écrasée, large, avec deux yeux de forme ovale, faisant saillie sur les côtés; face écrasée, deux mandibules à l'avant ; deux antennes pluriarticulées au milieu du front, douze (?) articles courts, homonomes, antennes non géniculées, aussi longues que le thorax, implantées au milieu du front. Cou net. Thorax de forme ovale, assez fortement bombé. Abdomen non pétiolé, fusiforme, segments nettement séparés ; chaque segment orné d'une bande transversale noire. Pattes grêles. Ailes en partie conservées, aile gauche très abimée, aile droite à moitié conservée, l'aile postérieure droite est en partie couchée sur l'aile antérieure ; nervation de Sphegidae, stigma noir, court et large ; une cellule radiale pointue (?) à l'extrémité ; deux cellules discoïdales fermées, probablement trois cellules cubitales (R-Cu) dont deux visibles, la deuxième non pétiolée. »[4].
-Dimensions
-La longueur totale est de 7,5 mm, le thorax a une longueur de 2,2 mm et une largeur de 2,2 mm, l'abdomen a une longueur de 4 mm et une largeur de 1,7 mm[4].
-Affinités
-« Il s'agit incontestablement d'un Hymènoptère Vespiforme et non d'un Mellifère, comme le supposait le Dr Abeille de Perrin qui avait déterminé cet échantillon Panurgioides annulatus (inédit). La nervation des ailes est celle des Sphegidae. Malheureusement l'extrémité des ailes manque et il n'est pas absolument certain qu'il s'agisse en réalité du g. Philanthus. »[4].
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype I de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) fait partie de la collection de l'institut géologique de Marseille, et vient de Camoins-les-Bains près de Marseille, dans les calcaires en plaquettes, probablement du Sannoisien.
 </t>
         </is>
       </c>
@@ -582,13 +590,203 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique annulatus signifie en latin « annulé ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Philanthus_annulatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philanthus_annulatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ancienne espèce synonyme</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Taxonomicon en 2023, signale une espèce Philanthus annulatus (Spinola, 1851) renommée en Trachypus annulatus Spinola, 1851.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Philanthus_annulatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philanthus_annulatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Corps brun noir, ailes claires. Tête écrasée, large, avec deux yeux de forme ovale, faisant saillie sur les côtés; face écrasée, deux mandibules à l'avant ; deux antennes pluriarticulées au milieu du front, douze (?) articles courts, homonomes, antennes non géniculées, aussi longues que le thorax, implantées au milieu du front. Cou net. Thorax de forme ovale, assez fortement bombé. Abdomen non pétiolé, fusiforme, segments nettement séparés ; chaque segment orné d'une bande transversale noire. Pattes grêles. Ailes en partie conservées, aile gauche très abimée, aile droite à moitié conservée, l'aile postérieure droite est en partie couchée sur l'aile antérieure ; nervation de Sphegidae, stigma noir, court et large ; une cellule radiale pointue (?) à l'extrémité ; deux cellules discoïdales fermées, probablement trois cellules cubitales (R-Cu) dont deux visibles, la deuxième non pétiolée. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Philanthus_annulatus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philanthus_annulatus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 7,5 mm, le thorax a une longueur de 2,2 mm et une largeur de 2,2 mm, l'abdomen a une longueur de 4 mm et une largeur de 1,7 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Philanthus_annulatus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philanthus_annulatus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Il s'agit incontestablement d'un Hymènoptère Vespiforme et non d'un Mellifère, comme le supposait le Dr Abeille de Perrin qui avait déterminé cet échantillon Panurgioides annulatus (inédit). La nervation des ailes est celle des Sphegidae. Malheureusement l'extrémité des ailes manque et il n'est pas absolument certain qu'il s'agisse en réalité du g. Philanthus. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Philanthus_annulatus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philanthus_annulatus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Certains Philanthes s'attaquent aux Abeilles. Notons qu'il existe déjà des Mellifères à l'Oligocène, l'existence des Philanthes est donc très plausible. »[5].
+« Certains Philanthes s'attaquent aux Abeilles. Notons qu'il existe déjà des Mellifères à l'Oligocène, l'existence des Philanthes est donc très plausible. ».
 </t>
         </is>
       </c>
